--- a/NformTester/NformTester/Keywordscripts/600.50.30.20_EnterpriseEditionBaseLicenseHasAbilityToShutdownClient.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.50.30.20_EnterpriseEditionBaseLicenseHasAbilityToShutdownClient.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7759" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7763" uniqueCount="869">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4465,10 +4465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4596,16 +4596,18 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="D4" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -4614,7 +4616,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4624,11 +4626,15 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>859</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4649,7 +4655,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4662,28 +4668,22 @@
       <c r="M6" s="3"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="2" t="s">
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="D7" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -4708,10 +4708,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>848</v>
+        <v>22</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -4737,10 +4737,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>22</v>
+        <v>848</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -4751,7 +4751,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>804</v>
       </c>
@@ -4761,46 +4761,46 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>860</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="23"/>
+      <c r="D10" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="14"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="D11" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15">
@@ -4818,10 +4818,10 @@
         <v>19</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>846</v>
+        <v>2</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -4844,10 +4844,10 @@
         <v>830</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>847</v>
+        <v>19</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>846</v>
@@ -4873,15 +4873,15 @@
         <v>830</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>237</v>
+        <v>847</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -4902,17 +4902,15 @@
         <v>830</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>861</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -4936,12 +4934,14 @@
         <v>239</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>861</v>
+      </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -4962,10 +4962,10 @@
         <v>830</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>847</v>
+        <v>239</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>2</v>
@@ -4979,7 +4979,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" ht="15">
+    <row r="18" spans="1:15">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
         <v>812</v>
@@ -4987,12 +4987,18 @@
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="D18" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="H18" s="20"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -5002,7 +5008,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="15">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
         <v>813</v>
@@ -5010,20 +5016,14 @@
       <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="D19" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
@@ -5048,10 +5048,10 @@
         <v>19</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>848</v>
+        <v>22</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
@@ -5080,7 +5080,7 @@
         <v>848</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
@@ -5100,26 +5100,20 @@
         <v>21</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>851</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -5133,13 +5127,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>830</v>
+        <v>867</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>419</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>7</v>
@@ -5151,7 +5145,7 @@
         <v>850</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -5172,14 +5166,20 @@
         <v>419</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>212</v>
+        <v>852</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>864</v>
+      </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -5196,17 +5196,15 @@
         <v>830</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>853</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" s="20"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -5225,7 +5223,7 @@
         <v>421</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>4</v>
@@ -5233,7 +5231,7 @@
       <c r="H26" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -5251,13 +5249,13 @@
         <v>421</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>423</v>
+        <v>221</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="17"/>
@@ -5277,12 +5275,14 @@
         <v>421</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>17</v>
+        <v>423</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>854</v>
+      </c>
       <c r="I28" s="20"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -5295,52 +5295,46 @@
         <v>28</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>855</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="14"/>
+        <v>830</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:15">
       <c r="C30" s="3">
         <v>29</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+        <v>855</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:15">
       <c r="C31" s="3">
@@ -5353,7 +5347,7 @@
         <v>419</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>7</v>
@@ -5365,7 +5359,7 @@
         <v>850</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -5383,16 +5377,20 @@
         <v>419</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>420</v>
+        <v>852</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>864</v>
+      </c>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
@@ -5409,12 +5407,14 @@
         <v>419</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>213</v>
+        <v>420</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>858</v>
+      </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -5427,46 +5427,46 @@
         <v>33</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>855</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="14"/>
+        <v>830</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" spans="3:14" s="15" customFormat="1">
       <c r="C35" s="3">
         <v>34</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="18"/>
+        <v>855</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="3:14" s="15" customFormat="1">
       <c r="C36" s="3">
@@ -5476,10 +5476,10 @@
         <v>830</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>19</v>
+        <v>419</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>2</v>
@@ -5503,7 +5503,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>848</v>
+        <v>22</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>2</v>
@@ -5524,23 +5524,17 @@
         <v>830</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>851</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -5557,7 +5551,7 @@
         <v>419</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>7</v>
@@ -5569,7 +5563,7 @@
         <v>850</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -5587,43 +5581,55 @@
         <v>419</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>100</v>
+        <v>852</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>864</v>
+      </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="3:14" ht="15">
+    <row r="41" spans="3:14">
       <c r="C41" s="3">
         <v>40</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>865</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="14"/>
+      <c r="D41" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="18"/>
     </row>
     <row r="42" spans="3:14" ht="15">
       <c r="C42" s="3">
         <v>41</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -5636,29 +5642,23 @@
       <c r="M42" s="3"/>
       <c r="N42" s="14"/>
     </row>
-    <row r="43" spans="3:14" s="15" customFormat="1">
+    <row r="43" spans="3:14" s="15" customFormat="1" ht="15">
       <c r="C43" s="3">
         <v>42</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>866</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="18"/>
+      <c r="D43" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="3:14" s="15" customFormat="1">
       <c r="C44" s="3">
@@ -5671,7 +5671,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>2</v>
@@ -5692,17 +5692,15 @@
         <v>866</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>847</v>
+        <v>19</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -5721,12 +5719,14 @@
         <v>847</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>861</v>
+      </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -5742,16 +5742,16 @@
         <v>866</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>248</v>
+        <v>847</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -5766,10 +5766,10 @@
         <v>866</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>847</v>
+        <v>248</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>2</v>
@@ -5790,10 +5790,10 @@
         <v>866</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>19</v>
+        <v>847</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>2</v>
@@ -5817,10 +5817,10 @@
         <v>19</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>848</v>
+        <v>22</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -5841,10 +5841,10 @@
         <v>19</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>22</v>
+        <v>848</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -5854,9 +5854,33 @@
       <c r="M51" s="17"/>
       <c r="N51" s="18"/>
     </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="3">
+        <v>51</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N51">
+  <conditionalFormatting sqref="N2:N52">
     <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5865,16 +5889,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43:D51 D19:D40 D3:D4 D7:D9 D11:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D52 D20:D41 D8:D10 D12:D18 D3:D5">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G52">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F52">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E52">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
